--- a/biology/Médecine/Augustin_Peel/Augustin_Peel.xlsx
+++ b/biology/Médecine/Augustin_Peel/Augustin_Peel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr Augustin Louis Joseph Peel, né le 25 septembre 1872 à Courtrai et y décédé le 22 février 1949 (à 76 ans) est homme politique belge flamand, membre du parti catholique.
 Peel fut docteur en médecine, chirurgie et obstétrique.
@@ -512,7 +524,9 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>23/11/1903-17/12/1929: conseiller communal à Courtrai;
 16/04/1920-31/03/1927: échevin à Courtrai ;
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bio sur ODIS
 De eerste wereldoorlog als breekpunt in het politiek leven te Kortrijk 1910-1932, Luc Pauwels, Gand, 1980.
